--- a/ComparacionEntropia.xlsx
+++ b/ComparacionEntropia.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBECAC4-2647-45F8-9AA6-05F082C05290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1D928C-9768-4AF3-ADD6-41C063EA5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>shiaa_28</t>
+    <t>shiaa_29</t>
   </si>
   <si>
     <t>SHA1</t>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -491,7 +491,7 @@
       </c>
       <c r="B4" s="1">
         <f>B2*LOG(B3,2)</f>
-        <v>183.0964467110249</v>
+        <v>189.63560552213292</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:E4" si="0">C2*LOG(C3,2)</f>
